--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(PH)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(PH).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(PH)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(PH).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PH)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PH)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | PH | PO |
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PH)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PH)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ph
-Pha
-Phacelia - Hydrophyllacées
+          <t>Ph</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pha</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Phacelia - Hydrophyllacées
 Phacelia campanularia - Phacélie
 Phacelia tanacetifolia - Phacélie à feuilles de tanaisie
 Phacelia congesta
@@ -528,12 +548,88 @@
 Phagnalon saxatile - Phagnalon des rochers
 Phalaris
 Phalaris arundinacea - Phalaris roseau
-Phalaris canariensis - Phalaris des Canaries
-Phe
-Phellodendron
-Phellodendron amurense - arbre liège de Chine
-Phi
-Philadelphus
+Phalaris canariensis - Phalaris des Canaries</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ph</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Phe</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phellodendron
+Phellodendron amurense - arbre liège de Chine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ph</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Philadelphus
 Philadelphus coronarius - Seringat couronné
 Philadelphusx cymosus
 Philadelphusx lemoinei - Seringat de Lemoine
@@ -545,15 +641,91 @@
 Phillyrea media filaire - Filaire à feuilles larges
 Philodendron
 Philodendron erubescens - Philodendron grimpant de Colombie
-Philodendron scandens - Philodendron grimpant du Mexique
-Phl
-Phleum - Poacées
+Philodendron scandens - Philodendron grimpant du Mexique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ph</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phl</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Phleum - Poacées
 Phleum alpinum - Phléole alpine
 Phleum pratense - Phléole des prés
 Phlomis
-Phlomis suffruticosum - Phlomis
-Pho
-Phoenix
+Phlomis suffruticosum - Phlomis</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ph</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pho</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phoenix
 Phoenix canariensis - Dattier des Canaries
 Phoenix dactylifera - Palmier-dattier
 Phoenix theophrasti - Dattier de Crète
@@ -561,12 +733,88 @@
 Photinia davidiana
 Photinia serrulata
 Photinia fraseri
-Photinia villosa
-Phr
-Phragmites  - Poaceae
-Phragmites australis - Roseau commun
-Phy
-Phyllocarpus
+Photinia villosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ph</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Phr</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phragmites  - Poaceae
+Phragmites australis - Roseau commun</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PH)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ph</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phy</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phyllocarpus
 Phyllostachys - fam. Poacées (Bambou)
 Phyllostachys acuta
 Phyllostachys aurita
